--- a/monthly 10-2020.xlsx
+++ b/monthly 10-2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
   <si>
     <t>ActivityTitle</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>in case of Appeal, Mr. Mansour wants Eservices to disable delete document buttons for end-user (Plaintiff or Defendant) for all the documents related to  initial case</t>
+  </si>
+  <si>
+    <t>move 28 cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t>move 51 cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reforward correspondence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reforword correspondence </t>
   </si>
 </sst>
 </file>
@@ -662,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F61" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F63" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F63"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ActivityTitle" dataDxfId="5"/>
     <tableColumn id="2" name="ActivityDes" dataDxfId="4"/>
@@ -939,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2068,9 +2080,55 @@
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/monthly 10-2020.xlsx
+++ b/monthly 10-2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="86">
   <si>
     <t>ActivityTitle</t>
   </si>
@@ -258,124 +258,6 @@
     <t>Caused by: com.microsoft.sqlserver.jdbc.SQLServerException: The transaction log for database 'GSTCBusinessDB_Linux' is full due to 'LOG_BACKUP</t>
   </si>
   <si>
-    <t>CRQ11037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Solution-Launch new template </t>
-  </si>
-  <si>
-    <r>
-      <t>Launch new template (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>قالب اللجنة الشرعية</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> in Murasslat System</t>
-    </r>
-  </si>
-  <si>
-    <t>CRQ11038</t>
-  </si>
-  <si>
-    <r>
-      <t>Launch new template (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> قالب الأمانة العامة للجان الضريبية</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> in Murasslat System</t>
-    </r>
-  </si>
-  <si>
-    <t>CRQ11040</t>
-  </si>
-  <si>
-    <t>Business Solution-fixing bug</t>
-  </si>
-  <si>
-    <t>fix issue when two users try to open same correspondence in export inbox in Murasslat</t>
-  </si>
-  <si>
-    <t>CRQ11041</t>
-  </si>
-  <si>
-    <r>
-      <t>fix issue for show old migrated correspondence in outgoing inbox (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>بريد المرسل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212121"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) in Murasslat</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">disable delete document buttons </t>
   </si>
   <si>
@@ -392,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">reforword correspondence </t>
+  </si>
+  <si>
+    <t>move 26 cases to Closed/Archived</t>
   </si>
 </sst>
 </file>
@@ -401,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,34 +306,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F497D"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -545,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,17 +431,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F63" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F60" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F60"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ActivityTitle" dataDxfId="5"/>
     <tableColumn id="2" name="ActivityDes" dataDxfId="4"/>
@@ -951,17 +799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="94.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
@@ -1976,76 +1824,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D56" s="7">
         <v>44119</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="7">
         <v>44119</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="7">
-        <v>44119.958333333336</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>88</v>
-      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="7">
         <v>44119</v>
       </c>
@@ -2053,80 +1895,24 @@
         <v>29</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>90</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="7">
-        <v>44119</v>
+        <v>44122</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="7">
-        <v>44119</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="7">
-        <v>44119</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="7">
-        <v>44119</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/monthly 10-2020.xlsx
+++ b/monthly 10-2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
   <si>
     <t>ActivityTitle</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Failure in Writing to Database</t>
   </si>
   <si>
-    <t>Caused by: com.microsoft.sqlserver.jdbc.SQLServerException: The transaction log for database 'GSTCBusinessDB_Linux' is full due to 'LOG_BACKUP</t>
-  </si>
-  <si>
     <t xml:space="preserve">disable delete document buttons </t>
   </si>
   <si>
@@ -277,6 +274,161 @@
   </si>
   <si>
     <t>move 26 cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t>DR meeting</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>generate weekly report for AC</t>
+  </si>
+  <si>
+    <r>
+      <t>Update (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>اغلاق الدعوى - مبادرة اعفاء</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) in Appian System</t>
+    </r>
+  </si>
+  <si>
+    <t>CRQ11205 -Business Solution</t>
+  </si>
+  <si>
+    <t>get attached files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get attached files names for a correspondence </t>
+  </si>
+  <si>
+    <t>requested by Mohammed Alasmiri</t>
+  </si>
+  <si>
+    <t>sending mails</t>
+  </si>
+  <si>
+    <t>contact with SBM team, and Miss Moniar Alsanad as well</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we need to add the file name in case of upload or delete a file in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SST Arabic"/>
+        <family val="2"/>
+      </rPr>
+      <t>history logs</t>
+    </r>
+  </si>
+  <si>
+    <t>meeting with DWH team</t>
+  </si>
+  <si>
+    <t>prepare report with instructions type</t>
+  </si>
+  <si>
+    <t>for DWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop contract </t>
+  </si>
+  <si>
+    <t>DWH</t>
+  </si>
+  <si>
+    <t>update th query</t>
+  </si>
+  <si>
+    <t>move 36 cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t>meeting DR</t>
+  </si>
+  <si>
+    <t>solving an issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solving an issue in a correspondnce </t>
+  </si>
+  <si>
+    <t>in upload</t>
+  </si>
+  <si>
+    <t>meeting DWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investigating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murasalat falied to integrate with open Text </t>
+  </si>
+  <si>
+    <t>after my investigationg, I have found that the issue was related to open text itself. Me &amp; Tamer contacted with Naveen right away and he solved the issue in open text</t>
+  </si>
+  <si>
+    <t>move 31 cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t>MOVE correspondences</t>
+  </si>
+  <si>
+    <t>forward a correspondence to thesource</t>
+  </si>
+  <si>
+    <t>prepare SQL Query</t>
+  </si>
+  <si>
+    <t>preparing a query for DWH team</t>
+  </si>
+  <si>
+    <t>move cases</t>
+  </si>
+  <si>
+    <t>Move 24  cases to Closed/Archived</t>
+  </si>
+  <si>
+    <t>resignation</t>
+  </si>
+  <si>
+    <t>move 21 cases to closed</t>
+  </si>
+  <si>
+    <t>move 29 cases to closed</t>
+  </si>
+  <si>
+    <t>move 5 cases to hearing hold</t>
+  </si>
+  <si>
+    <t>Caused by: com.microsoft.sqlserver.jdbc.SQLServerException: The transaction log for database   GSTCBusinessDB_Linux   is full due to   LOG_BACKUP</t>
+  </si>
+  <si>
+    <t>governor  s office assesment</t>
+  </si>
+  <si>
+    <t>install software</t>
+  </si>
+  <si>
+    <t>install tripwire</t>
   </si>
 </sst>
 </file>
@@ -286,13 +438,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SST Arabic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -308,6 +466,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SST Arabic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -318,6 +489,19 @@
       <color rgb="FF000000"/>
       <name val="SST Arabic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -398,16 +582,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -428,24 +621,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -522,15 +723,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F60" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A1:F86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F86"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ActivityTitle" dataDxfId="5"/>
     <tableColumn id="2" name="ActivityDes" dataDxfId="4"/>
     <tableColumn id="3" name="Notes" dataDxfId="3"/>
-    <tableColumn id="4" name="Date" dataDxfId="0"/>
-    <tableColumn id="5" name="SystemName" dataDxfId="2"/>
-    <tableColumn id="6" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" name="Date" dataDxfId="2"/>
+    <tableColumn id="5" name="SystemName" dataDxfId="1"/>
+    <tableColumn id="6" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D55" s="7">
         <v>44118</v>
@@ -1829,10 +2030,10 @@
         <v>39</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D56" s="7">
         <v>44119</v>
@@ -1849,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="7">
@@ -1867,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="7">
@@ -1882,10 +2083,10 @@
     </row>
     <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="7">
@@ -1903,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="7">
@@ -1913,6 +2114,589 @@
         <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="7">
+        <v>44122</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="7">
+        <v>44122</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="7">
+        <v>44123</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="7">
+        <v>44123</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="7">
+        <v>44123</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="7">
+        <v>44123</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="7">
+        <v>44124</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="7">
+        <v>44124</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="7">
+        <v>44125</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="7">
+        <v>44126</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="7">
+        <v>44127</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="7">
+        <v>44129</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="7">
+        <v>44129</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="7">
+        <v>44129</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="7">
+        <v>44129</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="7">
+        <v>44130</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="7">
+        <v>44130</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="7">
+        <v>44132</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="7">
+        <v>44132</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="7">
+        <v>44133</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="7">
+        <v>44133</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="7">
+        <v>44133</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="7">
+        <v>44133</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="7">
+        <v>44133</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="7">
+        <v>44134</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="7">
+        <v>44134</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/monthly 10-2020.xlsx
+++ b/monthly 10-2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="140">
   <si>
     <t>ActivityTitle</t>
   </si>
@@ -430,6 +430,48 @@
   <si>
     <t>install tripwire</t>
   </si>
+  <si>
+    <t xml:space="preserve">prepare reports </t>
+  </si>
+  <si>
+    <t>prepare weely report</t>
+  </si>
+  <si>
+    <t>for administrative department</t>
+  </si>
+  <si>
+    <t>prepare 3 monthly reports</t>
+  </si>
+  <si>
+    <t>10.50.10.102 activation</t>
+  </si>
+  <si>
+    <t>gazt-defendant internal portal needs to be activated</t>
+  </si>
+  <si>
+    <t>contat with infrastructure team</t>
+  </si>
+  <si>
+    <t>Stage server is unreachable</t>
+  </si>
+  <si>
+    <t>generate report</t>
+  </si>
+  <si>
+    <t>completed cases report</t>
+  </si>
+  <si>
+    <t>grant permission</t>
+  </si>
+  <si>
+    <t>grant GSTC users the new permission (Amana Template)</t>
+  </si>
+  <si>
+    <t>grant Sharayah committee users the new permission( Sharayah Template)</t>
+  </si>
+  <si>
+    <t>new template</t>
+  </si>
 </sst>
 </file>
 
@@ -438,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,8 +545,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +565,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2700,6 +2762,140 @@
         <v>9</v>
       </c>
     </row>
+    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="7">
+        <v>44136</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="7">
+        <v>44136</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="7">
+        <v>44136</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="7">
+        <v>44136</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="7">
+        <v>44136</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="7">
+        <v>44137</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="7">
+        <v>44137</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F54">
